--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED782166-5E5D-4957-9AD7-FF62336E1FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A22761-9D29-407F-B17E-C14A98043BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A22761-9D29-407F-B17E-C14A98043BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="15" windowWidth="23235" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="145">
   <si>
     <t>Marking type</t>
   </si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>blank</t>
@@ -456,8 +456,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,21 +520,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,7 +564,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -606,7 +598,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -641,10 +632,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -817,17 +807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>226</v>
       </c>
@@ -888,7 +875,7 @@
         <v>70</v>
       </c>
       <c r="F2">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -897,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -909,7 +896,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>150</v>
       </c>
@@ -926,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -935,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -947,7 +934,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>125</v>
       </c>
@@ -964,7 +951,7 @@
         <v>60</v>
       </c>
       <c r="F4">
-        <v>-1045</v>
+        <v>-1070</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -973,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -985,7 +972,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>120</v>
       </c>
@@ -1002,7 +989,7 @@
         <v>60</v>
       </c>
       <c r="F5">
-        <v>-1020</v>
+        <v>-1045</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1011,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1023,7 +1010,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>225</v>
       </c>
@@ -1040,7 +1027,7 @@
         <v>70</v>
       </c>
       <c r="F6">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1049,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1061,7 +1048,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>115</v>
       </c>
@@ -1078,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>-1120</v>
+        <v>-1145</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1087,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1099,7 +1086,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>229</v>
       </c>
@@ -1116,7 +1103,7 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1125,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1137,7 +1124,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>236</v>
       </c>
@@ -1154,7 +1141,7 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1163,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1175,7 +1162,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>235</v>
       </c>
@@ -1192,7 +1179,7 @@
         <v>70</v>
       </c>
       <c r="F10">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1201,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1213,7 +1200,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>234</v>
       </c>
@@ -1230,7 +1217,7 @@
         <v>70</v>
       </c>
       <c r="F11">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1239,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1251,7 +1238,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>233</v>
       </c>
@@ -1268,7 +1255,7 @@
         <v>70</v>
       </c>
       <c r="F12">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1277,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1289,7 +1276,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>232</v>
       </c>
@@ -1306,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="F13">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1315,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1327,7 +1314,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>231</v>
       </c>
@@ -1344,7 +1331,7 @@
         <v>70</v>
       </c>
       <c r="F14">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1353,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1365,7 +1352,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>230</v>
       </c>
@@ -1382,7 +1369,7 @@
         <v>70</v>
       </c>
       <c r="F15">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1391,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1403,7 +1390,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>228</v>
       </c>
@@ -1420,7 +1407,7 @@
         <v>70</v>
       </c>
       <c r="F16">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1429,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1441,7 +1428,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>227</v>
       </c>
@@ -1458,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="F17">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1467,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1479,7 +1466,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>244</v>
       </c>
@@ -1496,7 +1483,7 @@
         <v>-300</v>
       </c>
       <c r="F18">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1505,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1517,7 +1504,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>242</v>
       </c>
@@ -1534,7 +1521,7 @@
         <v>-300</v>
       </c>
       <c r="F19">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1543,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1555,7 +1542,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>241</v>
       </c>
@@ -1572,7 +1559,7 @@
         <v>-300</v>
       </c>
       <c r="F20">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1581,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1593,7 +1580,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>240</v>
       </c>
@@ -1610,7 +1597,7 @@
         <v>300</v>
       </c>
       <c r="F21">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1619,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1631,7 +1618,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>237</v>
       </c>
@@ -1648,7 +1635,7 @@
         <v>300</v>
       </c>
       <c r="F22">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1657,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1669,7 +1656,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>239</v>
       </c>
@@ -1686,7 +1673,7 @@
         <v>300</v>
       </c>
       <c r="F23">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1695,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1707,7 +1694,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>116</v>
       </c>
@@ -1724,7 +1711,7 @@
         <v>920</v>
       </c>
       <c r="F24">
-        <v>-1020</v>
+        <v>-1045</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1733,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1745,7 +1732,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>110</v>
       </c>
@@ -1762,7 +1749,7 @@
         <v>970</v>
       </c>
       <c r="F25">
-        <v>-1120</v>
+        <v>-1145</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1771,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1783,7 +1770,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>238</v>
       </c>
@@ -1800,7 +1787,7 @@
         <v>300</v>
       </c>
       <c r="F26">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1809,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1821,7 +1808,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>243</v>
       </c>
@@ -1838,7 +1825,7 @@
         <v>-300</v>
       </c>
       <c r="F27">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1847,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1859,7 +1846,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -1876,7 +1863,7 @@
         <v>1575</v>
       </c>
       <c r="F28">
-        <v>-1050</v>
+        <v>-1075</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1885,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1897,7 +1884,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>250</v>
       </c>
@@ -1914,7 +1901,7 @@
         <v>1650</v>
       </c>
       <c r="F29">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1923,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1935,7 +1922,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>111</v>
       </c>
@@ -1952,7 +1939,7 @@
         <v>1915</v>
       </c>
       <c r="F30">
-        <v>-1120</v>
+        <v>-1145</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1961,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1973,7 +1960,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>249</v>
       </c>
@@ -1990,7 +1977,7 @@
         <v>1650</v>
       </c>
       <c r="F31">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1999,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2011,7 +1998,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>128</v>
       </c>
@@ -2028,7 +2015,7 @@
         <v>1880</v>
       </c>
       <c r="F32">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -2037,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2049,7 +2036,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>248</v>
       </c>
@@ -2066,7 +2053,7 @@
         <v>1650</v>
       </c>
       <c r="F33">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -2075,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2087,7 +2074,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>247</v>
       </c>
@@ -2104,7 +2091,7 @@
         <v>1880</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2113,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2125,7 +2112,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>246</v>
       </c>
@@ -2142,7 +2129,7 @@
         <v>1880</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2151,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2163,7 +2150,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>245</v>
       </c>
@@ -2180,7 +2167,7 @@
         <v>1880</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2189,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2201,7 +2188,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>127</v>
       </c>
@@ -2218,7 +2205,7 @@
         <v>1650</v>
       </c>
       <c r="F37">
-        <v>-1020</v>
+        <v>-1045</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2227,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2239,7 +2226,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>257</v>
       </c>
@@ -2256,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -2265,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2277,7 +2264,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>112</v>
       </c>
@@ -2294,7 +2281,7 @@
         <v>-320</v>
       </c>
       <c r="F39">
-        <v>-1120</v>
+        <v>-1145</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -2303,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2315,7 +2302,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>255</v>
       </c>
@@ -2332,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2341,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2353,7 +2340,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>256</v>
       </c>
@@ -2370,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2379,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2391,7 +2378,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>117</v>
       </c>
@@ -2408,7 +2395,7 @@
         <v>-320</v>
       </c>
       <c r="F42">
-        <v>-1020</v>
+        <v>-1045</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2417,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2429,7 +2416,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>254</v>
       </c>
@@ -2446,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2455,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2467,7 +2454,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>253</v>
       </c>
@@ -2484,7 +2471,7 @@
         <v>300</v>
       </c>
       <c r="F44">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -2493,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2505,7 +2492,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>252</v>
       </c>
@@ -2522,7 +2509,7 @@
         <v>300</v>
       </c>
       <c r="F45">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -2531,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2543,7 +2530,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>251</v>
       </c>
@@ -2560,7 +2547,7 @@
         <v>300</v>
       </c>
       <c r="F46">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2569,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2581,7 +2568,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>258</v>
       </c>
@@ -2598,7 +2585,7 @@
         <v>1270</v>
       </c>
       <c r="F47">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2607,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2619,7 +2606,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>259</v>
       </c>
@@ -2636,7 +2623,7 @@
         <v>1270</v>
       </c>
       <c r="F48">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -2645,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2657,7 +2644,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>260</v>
       </c>
@@ -2674,7 +2661,7 @@
         <v>1270</v>
       </c>
       <c r="F49">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2683,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2695,7 +2682,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>261</v>
       </c>
@@ -2712,7 +2699,7 @@
         <v>1270</v>
       </c>
       <c r="F50">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2721,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2733,7 +2720,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>113</v>
       </c>
@@ -2750,7 +2737,7 @@
         <v>1315</v>
       </c>
       <c r="F51">
-        <v>-1120</v>
+        <v>-1145</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2759,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2771,7 +2758,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>118</v>
       </c>
@@ -2788,7 +2775,7 @@
         <v>1280</v>
       </c>
       <c r="F52">
-        <v>-1045</v>
+        <v>-1070</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2797,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2809,7 +2796,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>58</v>
       </c>
@@ -2826,7 +2813,7 @@
         <v>1220</v>
       </c>
       <c r="F53">
-        <v>-1052</v>
+        <v>-1077</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2835,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2847,7 +2834,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>263</v>
       </c>
@@ -2873,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2885,7 +2872,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>264</v>
       </c>
@@ -2911,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2923,7 +2910,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>114</v>
       </c>
@@ -2949,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2961,7 +2948,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>119</v>
       </c>
@@ -2987,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2999,7 +2986,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>265</v>
       </c>
@@ -3025,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3037,7 +3024,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>267</v>
       </c>
@@ -3063,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3075,7 +3062,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>262</v>
       </c>
@@ -3101,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3113,7 +3100,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>266</v>
       </c>
@@ -3139,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3151,7 +3138,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>275</v>
       </c>
@@ -3177,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3189,7 +3176,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>268</v>
       </c>
@@ -3215,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3227,7 +3214,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>269</v>
       </c>
@@ -3253,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3265,7 +3252,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>271</v>
       </c>
@@ -3291,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3303,7 +3290,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>272</v>
       </c>
@@ -3329,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3341,7 +3328,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>273</v>
       </c>
@@ -3367,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3379,7 +3366,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>274</v>
       </c>
@@ -3405,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3417,7 +3404,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>270</v>
       </c>
@@ -3443,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3455,7 +3442,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>121</v>
       </c>
@@ -3481,7 +3468,7 @@
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3493,7 +3480,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>122</v>
       </c>
@@ -3519,7 +3506,7 @@
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3531,7 +3518,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>123</v>
       </c>
@@ -3557,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3569,7 +3556,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>124</v>
       </c>
@@ -3595,7 +3582,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3607,7 +3594,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>133</v>
       </c>
@@ -3633,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3645,7 +3632,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>138</v>
       </c>
@@ -3671,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3683,7 +3670,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>152</v>
       </c>
@@ -3709,7 +3696,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3721,7 +3708,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>276</v>
       </c>
@@ -3747,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -3759,7 +3746,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>277</v>
       </c>
@@ -3785,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3803,14 +3790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3854,15 +3841,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1180</v>
@@ -3871,7 +3858,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>-970</v>
+        <v>-995</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3880,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3892,15 +3879,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>-465</v>
@@ -3909,7 +3896,7 @@
         <v>70</v>
       </c>
       <c r="F3">
-        <v>-1000</v>
+        <v>-1025</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3918,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3930,15 +3917,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>-455</v>
@@ -3947,7 +3934,7 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>-1000</v>
+        <v>-1025</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3956,7 +3943,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3968,15 +3955,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>-465</v>
@@ -3985,7 +3972,7 @@
         <v>70</v>
       </c>
       <c r="F5">
-        <v>-975</v>
+        <v>-1000</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3994,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4006,15 +3993,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>-455</v>
@@ -4023,7 +4010,7 @@
         <v>70</v>
       </c>
       <c r="F6">
-        <v>-975</v>
+        <v>-1000</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4032,7 +4019,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -4044,15 +4031,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>-375</v>
@@ -4061,7 +4048,7 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4070,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -4082,15 +4069,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>255</v>
@@ -4099,7 +4086,7 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4108,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -4120,15 +4107,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <v>-325</v>
@@ -4137,7 +4124,7 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4146,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4158,15 +4145,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>205</v>
@@ -4175,7 +4162,7 @@
         <v>70</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4184,7 +4171,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4196,15 +4183,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>-575</v>
@@ -4213,7 +4200,7 @@
         <v>1660</v>
       </c>
       <c r="F11">
-        <v>-1029</v>
+        <v>-1054</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4222,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4234,15 +4221,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D12">
         <v>450</v>
@@ -4251,7 +4238,7 @@
         <v>1810</v>
       </c>
       <c r="F12">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4260,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4272,15 +4259,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>-450</v>
@@ -4289,7 +4276,7 @@
         <v>1762</v>
       </c>
       <c r="F13">
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4298,7 +4285,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4310,15 +4297,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>-775</v>
@@ -4327,7 +4314,7 @@
         <v>1575</v>
       </c>
       <c r="F14">
-        <v>-1000</v>
+        <v>-1025</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4336,7 +4323,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4348,15 +4335,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4365,7 +4352,7 @@
         <v>1870</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4374,7 +4361,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4386,15 +4373,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>-135</v>
@@ -4403,7 +4390,7 @@
         <v>1650</v>
       </c>
       <c r="F16">
-        <v>-700</v>
+        <v>-725</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4412,7 +4399,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4424,15 +4411,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>-135</v>
@@ -4441,7 +4428,7 @@
         <v>1620</v>
       </c>
       <c r="F17">
-        <v>-1005</v>
+        <v>-1030</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -4450,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4462,15 +4449,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18">
         <v>375</v>
@@ -4479,7 +4466,7 @@
         <v>1620</v>
       </c>
       <c r="F18">
-        <v>-1005</v>
+        <v>-1030</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4488,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4500,15 +4487,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D19">
         <v>525</v>
@@ -4517,7 +4504,7 @@
         <v>1700</v>
       </c>
       <c r="F19">
-        <v>-1035</v>
+        <v>-1060</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -4526,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4538,15 +4525,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D20">
         <v>450</v>
@@ -4555,7 +4542,7 @@
         <v>1575</v>
       </c>
       <c r="F20">
-        <v>-418</v>
+        <v>-443</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -4564,7 +4551,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4576,15 +4563,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21">
         <v>-701</v>
@@ -4593,7 +4580,7 @@
         <v>1870</v>
       </c>
       <c r="F21">
-        <v>-690</v>
+        <v>-715</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -4602,7 +4589,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -4614,15 +4601,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D22">
         <v>1870</v>
@@ -4631,7 +4618,7 @@
         <v>210</v>
       </c>
       <c r="F22">
-        <v>-350</v>
+        <v>-375</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -4640,7 +4627,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4652,15 +4639,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23">
         <v>1870</v>
@@ -4669,7 +4656,7 @@
         <v>170</v>
       </c>
       <c r="F23">
-        <v>-350</v>
+        <v>-375</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -4678,7 +4665,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -4690,15 +4677,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D24">
         <v>1870</v>
@@ -4707,7 +4694,7 @@
         <v>260</v>
       </c>
       <c r="F24">
-        <v>-350</v>
+        <v>-375</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -4716,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4728,15 +4715,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>1893</v>
@@ -4745,7 +4732,7 @@
         <v>-250</v>
       </c>
       <c r="F25">
-        <v>-760</v>
+        <v>-785</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -4754,7 +4741,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -4766,15 +4753,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>445</v>
@@ -4783,7 +4770,7 @@
         <v>1270</v>
       </c>
       <c r="F26">
-        <v>-975</v>
+        <v>-1000</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -4792,7 +4779,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4804,15 +4791,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>-25</v>
@@ -4821,7 +4808,7 @@
         <v>1270</v>
       </c>
       <c r="F27">
-        <v>-1402</v>
+        <v>-1427</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -4830,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4842,15 +4829,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D28">
         <v>-25</v>
@@ -4859,7 +4846,7 @@
         <v>1270</v>
       </c>
       <c r="F28">
-        <v>-1452</v>
+        <v>-1477</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -4868,7 +4855,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4880,15 +4867,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D29">
         <v>190</v>
@@ -4897,7 +4884,7 @@
         <v>1220</v>
       </c>
       <c r="F29">
-        <v>-1025</v>
+        <v>-1050</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -4906,7 +4893,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4918,15 +4905,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30">
         <v>-185</v>
@@ -4935,7 +4922,7 @@
         <v>1272</v>
       </c>
       <c r="F30">
-        <v>-156</v>
+        <v>-181</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -4944,7 +4931,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4956,15 +4943,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D31">
         <v>175</v>
@@ -4973,7 +4960,7 @@
         <v>1270</v>
       </c>
       <c r="F31">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -4982,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4994,15 +4981,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D32">
         <v>445</v>
@@ -5011,7 +4998,7 @@
         <v>1270</v>
       </c>
       <c r="F32">
-        <v>-1000</v>
+        <v>-1025</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -5020,7 +5007,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -5032,15 +5019,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>191</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33">
         <v>435</v>
@@ -5049,7 +5036,7 @@
         <v>1270</v>
       </c>
       <c r="F33">
-        <v>-1000</v>
+        <v>-1025</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -5058,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -5070,15 +5057,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>193</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D34">
         <v>435</v>
@@ -5087,7 +5074,7 @@
         <v>1270</v>
       </c>
       <c r="F34">
-        <v>-975</v>
+        <v>-1000</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -5096,7 +5083,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -5108,15 +5095,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D35">
         <v>245</v>
@@ -5125,7 +5112,7 @@
         <v>1270</v>
       </c>
       <c r="F35">
-        <v>-121</v>
+        <v>-146</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -5134,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -5146,15 +5133,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D36">
         <v>-25</v>
@@ -5163,7 +5150,7 @@
         <v>1270</v>
       </c>
       <c r="F36">
-        <v>-2021</v>
+        <v>-2046</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -5172,7 +5159,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -5184,15 +5171,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D37">
         <v>-25</v>
@@ -5201,7 +5188,7 @@
         <v>1270</v>
       </c>
       <c r="F37">
-        <v>-2071</v>
+        <v>-2096</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -5210,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -5222,15 +5209,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D38">
         <v>105</v>
@@ -5239,7 +5226,7 @@
         <v>1270</v>
       </c>
       <c r="F38">
-        <v>-121</v>
+        <v>-146</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -5248,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -5260,15 +5247,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D39">
         <v>105</v>
@@ -5277,7 +5264,7 @@
         <v>1270</v>
       </c>
       <c r="F39">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -5286,7 +5273,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -5298,15 +5285,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>196</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D40">
         <v>245</v>
@@ -5315,7 +5302,7 @@
         <v>1270</v>
       </c>
       <c r="F40">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -5324,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -5336,15 +5323,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D41">
         <v>-853</v>
@@ -5362,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -5374,15 +5361,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D42">
         <v>725</v>
@@ -5400,7 +5387,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5412,15 +5399,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43">
         <v>395</v>
@@ -5438,7 +5425,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5450,15 +5437,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44">
         <v>-540</v>
@@ -5476,7 +5463,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -5488,15 +5475,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45">
         <v>750</v>
@@ -5514,7 +5501,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5532,14 +5519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5583,15 +5570,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2">
         <v>670</v>
@@ -5609,7 +5596,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -5621,15 +5608,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3">
         <v>750</v>
@@ -5647,7 +5634,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5659,15 +5646,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>830</v>
@@ -5685,7 +5672,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>1</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="127">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,235 +63,214 @@
     <t>Tile</t>
   </si>
   <si>
-    <t>TMP1S2a2:TMP1S2a2:1270014</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.10 Glass:1070941</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070744</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070719</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1270013</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1070714</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1270018</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1270026</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1270025</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1270024</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1270023</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1270021</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1270020</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1270019</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1270016</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1270015</t>
-  </si>
-  <si>
-    <t>TMP2S2b1:TMP2S2b1:1270036</t>
-  </si>
-  <si>
-    <t>TMP2S2b3:TMP2S2b3:1270034</t>
-  </si>
-  <si>
-    <t>TMP2S2b4:TMP2S2b4:1270033</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1270031</t>
-  </si>
-  <si>
-    <t>TMP2S2a4:TMP2S2a4:1270028</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1270030</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070715</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1070709</t>
-  </si>
-  <si>
-    <t>TMP2S2a3:TMP2S2a3:1270029</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1270035</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1016058</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1270043</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1070710</t>
-  </si>
-  <si>
-    <t>TMP3S2b1:TMP3S2b1:1270042</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes:1070795</t>
-  </si>
-  <si>
-    <t>TMP3S2c1:TMP3S2c1:1270041</t>
-  </si>
-  <si>
-    <t>TMP3S2c2:TMP3S2c2:1270040</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1270039</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1270038</t>
-  </si>
-  <si>
-    <t>BOX-UP1:BOX-UP:1070775</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1270051</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1070711</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1270049</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1270050</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070716</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1270048</t>
-  </si>
-  <si>
-    <t>TMP4S2b3:TMP4S2b3:1270047</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1270046</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1270045</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1270053</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1270054</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1270055</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1270056</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1070712</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070717</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1017371</t>
-  </si>
-  <si>
-    <t>TMP6S2b1:TMP6S2b1:1270059</t>
-  </si>
-  <si>
-    <t>TMP6S2a4:TMP6S2a4:1270060</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.50:1070713</t>
-  </si>
-  <si>
-    <t>Basic Wall:BSS.20mm Wall Finishes (600x600mm):1070718</t>
-  </si>
-  <si>
-    <t>TMP6S2a3:TMP6S2a3:1270061</t>
-  </si>
-  <si>
-    <t>TMP6S2a1:TMP6S2a1:1270063</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1270058</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1270062</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1270073</t>
-  </si>
-  <si>
-    <t>TMP7S2a4:TMP7S2a4:1270065</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1270066</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1270068</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1270070</t>
-  </si>
-  <si>
-    <t>TMP7S2c2:TMP7S2c2:1270071</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1270072</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1270067</t>
-  </si>
-  <si>
-    <t>Floor:BSS.100:1070722</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x600mm):1070729</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1070734</t>
-  </si>
-  <si>
-    <t>Floor:BSS.75:1070739</t>
-  </si>
-  <si>
-    <t>Floor:BSS.80:1070816</t>
-  </si>
-  <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1070893</t>
-  </si>
-  <si>
-    <t>Compound Ceiling:BSS.600/1200.Grid:1070966</t>
-  </si>
-  <si>
-    <t>TMP7S2b2:TMP7S2b2:1270074</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1270075</t>
+    <t>TMP1S2e4:TMP1S2e4:1272842</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1272849</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1272848</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1272847</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1272845</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1272844</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1272843</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1272840</t>
+  </si>
+  <si>
+    <t>TMP1S2d2:TMP1S2d2:1272839</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1272838</t>
+  </si>
+  <si>
+    <t>TMP1S2f1:TMP1S2f1:1272850</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1272837</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1272822</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1272823</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1272824</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1272825</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1272827</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1272828</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1272829</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1272830</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1272832</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1272835</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1272833</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1272834</t>
+  </si>
+  <si>
+    <t>TMP2S2a4:TMP2S2a4:1272852</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1272860</t>
+  </si>
+  <si>
+    <t>TMP2S2b2:TMP2S2b2:1272859</t>
+  </si>
+  <si>
+    <t>TMP2S2b3:TMP2S2b3:1272858</t>
+  </si>
+  <si>
+    <t>TMP2S2a1:TMP2S2a1:1272855</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1272854</t>
+  </si>
+  <si>
+    <t>TMP2S2b4:TMP2S2b4:1272857</t>
+  </si>
+  <si>
+    <t>TMP2S2a3:TMP2S2a3:1272853</t>
+  </si>
+  <si>
+    <t>TMP3S2b4:TMP3S2b4:1272862</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1272863</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1272864</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1272865</t>
+  </si>
+  <si>
+    <t>TMP3S2b3:TMP3S2b3:1272866</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1272867</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1272868</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1272869</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1272871</t>
+  </si>
+  <si>
+    <t>TMP4S2b3:TMP4S2b3:1272874</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1272875</t>
+  </si>
+  <si>
+    <t>TMP4S2a3:TMP4S2a3:1272876</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1272877</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1272878</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1272873</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1272872</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1272880</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1272881</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1272882</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1272883</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1272885</t>
+  </si>
+  <si>
+    <t>TMP6S2b1:TMP6S2b1:1272886</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1272888</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1272890</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1272889</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1272887</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1272897</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1272900</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1272896</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1272901</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1272902</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1272899</t>
+  </si>
+  <si>
+    <t>TMP7S2b1:TMP7S2b1:1272895</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1272893</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1272892</t>
+  </si>
+  <si>
+    <t>TMP7S2c2:TMP7S2c2:1272903</t>
+  </si>
+  <si>
+    <t>TMP7S2b2:TMP7S2b2:1272894</t>
+  </si>
+  <si>
+    <t>TMP7S2c1:TMP7S2c1:1272904</t>
   </si>
   <si>
     <t>F</t>
@@ -300,157 +279,124 @@
     <t>+</t>
   </si>
   <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>LP1S3b1:LP1S3b1:1112164</t>
+  </si>
+  <si>
+    <t>LP1S3b2:LP1S3b2:1112117</t>
+  </si>
+  <si>
+    <t>LP1S3b4:LP1S3b4:1111868</t>
+  </si>
+  <si>
+    <t>LP1S3a4:LP1S3a4:1107446</t>
+  </si>
+  <si>
+    <t>LP1S3a3:LP1S3a3:1105290</t>
+  </si>
+  <si>
+    <t>LP1S3a2:LP1S3a2:1103774</t>
+  </si>
+  <si>
+    <t>LP1S3a1:LP1S3a1:1102074</t>
+  </si>
+  <si>
+    <t>LP1S3b3:LP1S3b3:1112271</t>
+  </si>
+  <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1003598</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1070866</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1070900</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1021335</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1070931</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1070932</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1021224</t>
+  </si>
+  <si>
+    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1070898</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1070937</t>
+  </si>
+  <si>
+    <t>LP4S3a1:LP4S3a1:1154109</t>
+  </si>
+  <si>
+    <t>LP4S3a2:LP4S3a2:1154132</t>
+  </si>
+  <si>
+    <t>LP5S3c3:LP5S3c3:1170244</t>
+  </si>
+  <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1070817</t>
+  </si>
+  <si>
+    <t>LP5S3c4:LP5S3c4:1169681</t>
+  </si>
+  <si>
+    <t>LP5S3b1:LP5S3b1:1161317</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1070934</t>
+  </si>
+  <si>
+    <t>LP5S3c2:LP5S3c2:1167654</t>
+  </si>
+  <si>
+    <t>LP5S3a1:LP5S3a1:1155469</t>
+  </si>
+  <si>
+    <t>LP5S3a2:LP5S3a2:1156691</t>
+  </si>
+  <si>
+    <t>LP5S3a3:LP5S3a3:1159006</t>
+  </si>
+  <si>
+    <t>LP5S3a4:LP5S3a4:1159048</t>
+  </si>
+  <si>
+    <t>LP5S3c1:LP5S3c1:1167627</t>
+  </si>
+  <si>
+    <t>LP5S3b2:LP5S3b2:1161341</t>
+  </si>
+  <si>
+    <t>LP5S3b3:LP5S3b3:1163623</t>
+  </si>
+  <si>
+    <t>LP5S3b4:LP5S3b4:1163640</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1021880</t>
+  </si>
+  <si>
+    <t>BSS.Ceiling Access Panel Opening:450 x 450MM:1070904</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1070936</t>
+  </si>
+  <si>
+    <t>BSS.Ceiling Access Panel:450 x 450MM:1070905</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>BSS.Shower Glass Door:650/2200:1070954</t>
-  </si>
-  <si>
-    <t>LP1S3a1:LP1S3a1:1102074</t>
-  </si>
-  <si>
-    <t>LP1S3a2:LP1S3a2:1103774</t>
-  </si>
-  <si>
-    <t>LP1S3a3:LP1S3a3:1105290</t>
-  </si>
-  <si>
-    <t>LP1S3a4:LP1S3a4:1107446</t>
-  </si>
-  <si>
-    <t>LP1S3b4:LP1S3b4:1111868</t>
-  </si>
-  <si>
-    <t>LP1S3b1:LP1S3b1:1112164</t>
-  </si>
-  <si>
-    <t>LP1S3b3:LP1S3b3:1112271</t>
-  </si>
-  <si>
-    <t>LP1S3b2:LP1S3b2:1112117</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1070933</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1070932</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1070931</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1070898</t>
-  </si>
-  <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1070866</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1070900</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021335</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021224</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1020659</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1003598</t>
-  </si>
-  <si>
-    <t>BSS.TECE.CONCEALED CISTERN.9370224:BSS.TECE.CONCEALED CISTERN.9370224:1070813</t>
-  </si>
-  <si>
-    <t>LP4S3a1:LP4S3a1:1154109</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1070937</t>
-  </si>
-  <si>
-    <t>LP4S3a2:LP4S3a2:1154132</t>
-  </si>
-  <si>
-    <t>M_Coupling - Threaded - MI - Class 150:Standard:974517</t>
-  </si>
-  <si>
-    <t>LP5S3a3:LP5S3a3:1159006</t>
-  </si>
-  <si>
-    <t>LP5S3c4:LP5S3c4:1169681</t>
-  </si>
-  <si>
-    <t>LP5S3c3:LP5S3c3:1170244</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1070799</t>
-  </si>
-  <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1070817</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1070934</t>
-  </si>
-  <si>
-    <t>LP5S3a1:LP5S3a1:1155469</t>
-  </si>
-  <si>
-    <t>LP5S3a2:LP5S3a2:1156691</t>
-  </si>
-  <si>
-    <t>LP5S3a4:LP5S3a4:1159048</t>
-  </si>
-  <si>
-    <t>LP5S3b1:LP5S3b1:1161317</t>
-  </si>
-  <si>
-    <t>LP5S3c2:LP5S3c2:1167654</t>
-  </si>
-  <si>
-    <t>LP5S3c1:LP5S3c1:1167627</t>
-  </si>
-  <si>
-    <t>LP5S3b2:LP5S3b2:1161341</t>
-  </si>
-  <si>
-    <t>LP5S3b4:LP5S3b4:1163640</t>
-  </si>
-  <si>
-    <t>LP5S3b3:LP5S3b3:1163623</t>
-  </si>
-  <si>
-    <t>BSS.Shower Door Hand Rail:BSS.Shower Door Hand Rail:1070818</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel Opening:450 x 450MM:1070904</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel:450 x 450MM:1070905</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1070936</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021880</t>
-  </si>
-  <si>
-    <t>Obstacles</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:20 mm:1022018</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:25 mm:1022092</t>
-  </si>
-  <si>
-    <t>BSS.Gate Valve:25 mm:1022140</t>
   </si>
 </sst>
 </file>
@@ -808,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -860,7 +806,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -869,13 +815,13 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="F2">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -884,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -898,7 +844,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -907,22 +853,22 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>925</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -936,7 +882,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -945,22 +891,22 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>-460</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>925</v>
       </c>
       <c r="F4">
-        <v>-1070</v>
+        <v>-175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -974,7 +920,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -983,22 +929,22 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>-455</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>925</v>
       </c>
       <c r="F5">
-        <v>-1045</v>
+        <v>-775</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1012,7 +958,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1021,10 +967,10 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="F6">
         <v>1025</v>
@@ -1036,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1050,7 +996,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1059,22 +1005,22 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>470</v>
       </c>
       <c r="F7">
-        <v>-1145</v>
+        <v>425</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1088,7 +1034,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1097,13 +1043,13 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="F8">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1112,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1126,7 +1072,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1135,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>-925</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="F9">
         <v>1025</v>
@@ -1150,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1164,7 +1110,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1173,10 +1119,10 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>-925</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="F10">
         <v>425</v>
@@ -1188,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1202,7 +1148,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1211,13 +1157,13 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-925</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="F11">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1226,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1240,7 +1186,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1249,13 +1195,13 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>-925</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>925</v>
       </c>
       <c r="F12">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1264,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1278,7 +1224,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1287,13 +1233,13 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="F13">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1302,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1316,7 +1262,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1325,13 +1271,13 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>70</v>
+        <v>-1330</v>
       </c>
       <c r="F14">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1340,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1354,7 +1300,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1363,13 +1309,13 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>-1330</v>
       </c>
       <c r="F15">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1378,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1392,7 +1338,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1401,13 +1347,13 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>-1330</v>
       </c>
       <c r="F16">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1416,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1430,7 +1376,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1439,13 +1385,13 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>-1330</v>
       </c>
       <c r="F17">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1454,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1468,7 +1414,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1477,28 +1423,28 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-300</v>
+        <v>-330</v>
       </c>
       <c r="F18">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M18">
         <v>2705</v>
@@ -1506,7 +1452,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1515,28 +1461,28 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-300</v>
+        <v>-330</v>
       </c>
       <c r="F19">
         <v>-175</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M19">
         <v>2705</v>
@@ -1544,7 +1490,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1553,28 +1499,28 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-300</v>
+        <v>-330</v>
       </c>
       <c r="F20">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M20">
         <v>2705</v>
@@ -1582,7 +1528,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1591,28 +1537,28 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>-330</v>
       </c>
       <c r="F21">
         <v>1025</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M21">
         <v>2705</v>
@@ -1620,7 +1566,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1629,28 +1575,28 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>-25</v>
       </c>
       <c r="F22">
         <v>-775</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M22">
         <v>2705</v>
@@ -1658,7 +1604,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1667,28 +1613,28 @@
         <v>36</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>300</v>
+        <v>-25</v>
       </c>
       <c r="F23">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M23">
         <v>2705</v>
@@ -1696,7 +1642,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1705,28 +1651,28 @@
         <v>37</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>920</v>
+        <v>-25</v>
       </c>
       <c r="F24">
-        <v>-1045</v>
+        <v>-175</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M24">
         <v>2705</v>
@@ -1734,7 +1680,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1743,28 +1689,28 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>970</v>
+        <v>-25</v>
       </c>
       <c r="F25">
-        <v>-1145</v>
+        <v>425</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M25">
         <v>2705</v>
@@ -1772,7 +1718,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1781,13 +1727,13 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F26">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1796,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1810,7 +1756,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1819,13 +1765,13 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F27">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1834,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1848,7 +1794,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1857,22 +1803,22 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>-812</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1575</v>
+        <v>300</v>
       </c>
       <c r="F28">
-        <v>-1075</v>
+        <v>425</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1886,7 +1832,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1895,22 +1841,22 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="F29">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1924,7 +1870,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1933,22 +1879,22 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1915</v>
+        <v>-300</v>
       </c>
       <c r="F30">
-        <v>-1145</v>
+        <v>1025</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1962,7 +1908,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1971,22 +1917,22 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1650</v>
+        <v>-300</v>
       </c>
       <c r="F31">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2000,7 +1946,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2009,22 +1955,22 @@
         <v>45</v>
       </c>
       <c r="D32">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1880</v>
+        <v>300</v>
       </c>
       <c r="F32">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2038,7 +1984,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -2047,22 +1993,22 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1650</v>
+        <v>-300</v>
       </c>
       <c r="F33">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2076,7 +2022,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2085,10 +2031,10 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>-450</v>
+        <v>1800</v>
       </c>
       <c r="E34">
-        <v>1880</v>
+        <v>-900</v>
       </c>
       <c r="F34">
         <v>-25</v>
@@ -2100,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2114,7 +2060,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2123,13 +2069,13 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="E35">
-        <v>1880</v>
+        <v>-900</v>
       </c>
       <c r="F35">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2138,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2152,7 +2098,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2161,10 +2107,10 @@
         <v>49</v>
       </c>
       <c r="D36">
+        <v>1800</v>
+      </c>
+      <c r="E36">
         <v>750</v>
-      </c>
-      <c r="E36">
-        <v>1880</v>
       </c>
       <c r="F36">
         <v>-25</v>
@@ -2176,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2190,7 +2136,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2199,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E37">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="F37">
-        <v>-1045</v>
+        <v>-25</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2228,7 +2174,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2237,28 +2183,28 @@
         <v>51</v>
       </c>
       <c r="D38">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="F38">
-        <v>1025</v>
+        <v>-25</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M38">
         <v>2705</v>
@@ -2266,7 +2212,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2275,28 +2221,28 @@
         <v>52</v>
       </c>
       <c r="D39">
-        <v>1915</v>
+        <v>1800</v>
       </c>
       <c r="E39">
-        <v>-320</v>
+        <v>-450</v>
       </c>
       <c r="F39">
-        <v>-1145</v>
+        <v>-775</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M39">
         <v>2705</v>
@@ -2304,7 +2250,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2313,28 +2259,28 @@
         <v>53</v>
       </c>
       <c r="D40">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F40">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M40">
         <v>2705</v>
@@ -2342,7 +2288,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2351,28 +2297,28 @@
         <v>54</v>
       </c>
       <c r="D41">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F41">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="M41">
         <v>2705</v>
@@ -2380,7 +2326,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2389,22 +2335,22 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>1880</v>
+        <v>1800</v>
       </c>
       <c r="E42">
-        <v>-320</v>
+        <v>300</v>
       </c>
       <c r="F42">
-        <v>-1045</v>
+        <v>-775</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2418,7 +2364,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2427,13 +2373,13 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F43">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2442,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2456,7 +2402,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2465,13 +2411,13 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -2480,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2494,7 +2440,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2503,13 +2449,13 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -2518,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2532,7 +2478,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2541,13 +2487,13 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="E46">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2556,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2570,7 +2516,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2579,28 +2525,28 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>-25</v>
+        <v>1800</v>
       </c>
       <c r="E47">
-        <v>1270</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>1025</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="M47">
         <v>2705</v>
@@ -2608,7 +2554,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2617,28 +2563,28 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>-25</v>
+        <v>1800</v>
       </c>
       <c r="E48">
-        <v>1270</v>
+        <v>300</v>
       </c>
       <c r="F48">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="M48">
         <v>2705</v>
@@ -2646,7 +2592,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2655,28 +2601,28 @@
         <v>62</v>
       </c>
       <c r="D49">
-        <v>-25</v>
+        <v>1800</v>
       </c>
       <c r="E49">
-        <v>1270</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="M49">
         <v>2705</v>
@@ -2684,7 +2630,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2693,10 +2639,10 @@
         <v>63</v>
       </c>
       <c r="D50">
-        <v>-25</v>
+        <v>-600</v>
       </c>
       <c r="E50">
-        <v>1270</v>
+        <v>25</v>
       </c>
       <c r="F50">
         <v>1025</v>
@@ -2708,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2722,7 +2668,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2731,22 +2677,22 @@
         <v>64</v>
       </c>
       <c r="D51">
-        <v>410</v>
+        <v>-600</v>
       </c>
       <c r="E51">
-        <v>1315</v>
+        <v>25</v>
       </c>
       <c r="F51">
-        <v>-1145</v>
+        <v>-175</v>
       </c>
       <c r="G51">
         <v>5</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2760,7 +2706,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2769,22 +2715,22 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>460</v>
+        <v>-600</v>
       </c>
       <c r="E52">
-        <v>1280</v>
+        <v>25</v>
       </c>
       <c r="F52">
-        <v>-1070</v>
+        <v>425</v>
       </c>
       <c r="G52">
         <v>5</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2798,7 +2744,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2807,22 +2753,22 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>190</v>
+        <v>-600</v>
       </c>
       <c r="E53">
-        <v>1220</v>
+        <v>25</v>
       </c>
       <c r="F53">
-        <v>-1077</v>
+        <v>1025</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2836,7 +2782,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2845,13 +2791,13 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>2830</v>
+        <v>960</v>
       </c>
       <c r="E54">
         <v>500</v>
       </c>
       <c r="F54">
-        <v>-150</v>
+        <v>-750</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -2860,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2874,7 +2820,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2883,13 +2829,13 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>2830</v>
+        <v>960</v>
       </c>
       <c r="E55">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="F55">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G55">
         <v>6</v>
@@ -2898,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2912,7 +2858,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2921,22 +2867,22 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>2875</v>
+        <v>960</v>
       </c>
       <c r="E56">
-        <v>-620</v>
+        <v>-100</v>
       </c>
       <c r="F56">
-        <v>-1120</v>
+        <v>-150</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2950,7 +2896,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2959,22 +2905,22 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>2840</v>
+        <v>960</v>
       </c>
       <c r="E57">
-        <v>-600</v>
+        <v>-120</v>
       </c>
       <c r="F57">
-        <v>-1045</v>
+        <v>1050</v>
       </c>
       <c r="G57">
         <v>6</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2988,7 +2934,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2997,13 +2943,13 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>2830</v>
+        <v>960</v>
       </c>
       <c r="E58">
-        <v>-100</v>
+        <v>-120</v>
       </c>
       <c r="F58">
-        <v>-150</v>
+        <v>450</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -3012,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3026,7 +2972,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -3035,13 +2981,13 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>2830</v>
+        <v>960</v>
       </c>
       <c r="E59">
         <v>-100</v>
       </c>
       <c r="F59">
-        <v>1050</v>
+        <v>-750</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -3050,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3064,7 +3010,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3073,36 +3019,36 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>2870</v>
+        <v>750</v>
       </c>
       <c r="E60">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="F60">
-        <v>-750</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
+        <v>-25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>1340</v>
+        <v>2900</v>
       </c>
       <c r="M60">
-        <v>2705</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3111,36 +3057,36 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>2830</v>
+        <v>2640</v>
       </c>
       <c r="E61">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="F61">
-        <v>450</v>
-      </c>
-      <c r="G61">
-        <v>6</v>
+        <v>-25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1340</v>
+        <v>2900</v>
       </c>
       <c r="M61">
-        <v>2705</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3149,22 +3095,22 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E62">
-        <v>-450</v>
+        <v>600</v>
       </c>
       <c r="F62">
         <v>-25</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3178,7 +3124,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3187,22 +3133,22 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>-450</v>
+        <v>2640</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="F63">
         <v>-25</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3216,7 +3162,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3225,22 +3171,22 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>-450</v>
+        <v>2040</v>
       </c>
       <c r="E64">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F64">
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3254,7 +3200,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3263,22 +3209,22 @@
         <v>78</v>
       </c>
       <c r="D65">
+        <v>2640</v>
+      </c>
+      <c r="E65">
         <v>150</v>
-      </c>
-      <c r="E65">
-        <v>600</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3292,7 +3238,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3301,22 +3247,22 @@
         <v>79</v>
       </c>
       <c r="D66">
-        <v>-300</v>
+        <v>1350</v>
       </c>
       <c r="E66">
-        <v>-450</v>
+        <v>1200</v>
       </c>
       <c r="F66">
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3330,7 +3276,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3339,22 +3285,22 @@
         <v>80</v>
       </c>
       <c r="D67">
-        <v>-300</v>
+        <v>750</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F67">
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3368,7 +3314,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3377,22 +3323,22 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>-300</v>
+        <v>1350</v>
       </c>
       <c r="E68">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="F68">
         <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3406,7 +3352,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3415,22 +3361,22 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>150</v>
+        <v>2040</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F69">
         <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3444,7 +3390,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3453,22 +3399,22 @@
         <v>83</v>
       </c>
       <c r="D70">
-        <v>-480</v>
+        <v>1350</v>
       </c>
       <c r="E70">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3482,7 +3428,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3491,22 +3437,22 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>-480</v>
+        <v>2040</v>
       </c>
       <c r="E71">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3515,272 +3461,6 @@
         <v>2900</v>
       </c>
       <c r="M71">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1">
-        <v>123</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72">
-        <v>-480</v>
-      </c>
-      <c r="E72">
-        <v>300</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H72">
-        <v>6</v>
-      </c>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>2900</v>
-      </c>
-      <c r="M72">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1">
-        <v>124</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73">
-        <v>-480</v>
-      </c>
-      <c r="E73">
-        <v>300</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>92</v>
-      </c>
-      <c r="H73">
-        <v>6</v>
-      </c>
-      <c r="I73" t="s">
-        <v>95</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>2900</v>
-      </c>
-      <c r="M73">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1">
-        <v>133</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74">
-        <v>-480</v>
-      </c>
-      <c r="E74">
-        <v>300</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
-      <c r="H74">
-        <v>6</v>
-      </c>
-      <c r="I74" t="s">
-        <v>95</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>2900</v>
-      </c>
-      <c r="M74">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1">
-        <v>138</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75">
-        <v>-480</v>
-      </c>
-      <c r="E75">
-        <v>300</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75">
-        <v>6</v>
-      </c>
-      <c r="I75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>2900</v>
-      </c>
-      <c r="M75">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1">
-        <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76">
-        <v>970</v>
-      </c>
-      <c r="E76">
-        <v>-670</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76" t="s">
-        <v>95</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2900</v>
-      </c>
-      <c r="M76">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1">
-        <v>276</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77">
-        <v>300</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>-25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>92</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>95</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2900</v>
-      </c>
-      <c r="M77">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1">
-        <v>277</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78">
-        <v>300</v>
-      </c>
-      <c r="E78">
-        <v>450</v>
-      </c>
-      <c r="F78">
-        <v>-25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
-        <v>95</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>2900</v>
-      </c>
-      <c r="M78">
         <v>1940</v>
       </c>
     </row>
@@ -3791,7 +3471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3843,22 +3523,22 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>-255</v>
       </c>
       <c r="F2">
-        <v>-995</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3867,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3881,22 +3561,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>-465</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>-205</v>
       </c>
       <c r="F3">
-        <v>-1025</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3905,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3919,22 +3599,22 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>-455</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="F4">
-        <v>-1025</v>
+        <v>175</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3943,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3957,19 +3637,19 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>-465</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="F5">
         <v>-1000</v>
@@ -3981,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3995,19 +3675,19 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>-455</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>465</v>
       </c>
       <c r="F6">
         <v>-1000</v>
@@ -4019,7 +3699,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -4033,22 +3713,22 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="F7">
-        <v>175</v>
+        <v>-1025</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4057,7 +3737,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -4071,22 +3751,22 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>465</v>
       </c>
       <c r="F8">
-        <v>175</v>
+        <v>-1025</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4095,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -4112,16 +3792,16 @@
         <v>162</v>
       </c>
       <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
       <c r="D9">
-        <v>-325</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="F9">
         <v>175</v>
@@ -4133,7 +3813,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4147,37 +3827,37 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>1505</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="F10">
-        <v>175</v>
+        <v>-443</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2900</v>
+        <v>1940</v>
       </c>
       <c r="M10">
         <v>2705</v>
@@ -4185,22 +3865,22 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>-575</v>
+        <v>1800</v>
       </c>
       <c r="E11">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-1054</v>
+        <v>125</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4209,7 +3889,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4223,22 +3903,22 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>450</v>
+        <v>1580</v>
       </c>
       <c r="E12">
-        <v>1810</v>
+        <v>-135</v>
       </c>
       <c r="F12">
-        <v>-175</v>
+        <v>-725</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4247,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4261,22 +3941,22 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>-450</v>
+        <v>1550</v>
       </c>
       <c r="E13">
-        <v>1762</v>
+        <v>-135</v>
       </c>
       <c r="F13">
-        <v>-175</v>
+        <v>-1030</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4285,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4299,22 +3979,22 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D14">
-        <v>-775</v>
+        <v>1692</v>
       </c>
       <c r="E14">
-        <v>1575</v>
+        <v>-450</v>
       </c>
       <c r="F14">
-        <v>-1025</v>
+        <v>-175</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4323,7 +4003,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4337,22 +4017,22 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="E15">
-        <v>1870</v>
+        <v>450</v>
       </c>
       <c r="F15">
-        <v>125</v>
+        <v>-175</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4361,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4375,22 +4055,22 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>-135</v>
+        <v>1550</v>
       </c>
       <c r="E16">
-        <v>1650</v>
+        <v>375</v>
       </c>
       <c r="F16">
-        <v>-725</v>
+        <v>-1030</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4399,7 +4079,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4413,22 +4093,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D17">
-        <v>-135</v>
+        <v>1505</v>
       </c>
       <c r="E17">
-        <v>1620</v>
+        <v>-775</v>
       </c>
       <c r="F17">
-        <v>-1030</v>
+        <v>-1025</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -4437,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4451,37 +4131,37 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D18">
-        <v>375</v>
+        <v>1800</v>
       </c>
       <c r="E18">
-        <v>1620</v>
+        <v>170</v>
       </c>
       <c r="F18">
-        <v>-1030</v>
+        <v>-375</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M18">
         <v>2705</v>
@@ -4489,37 +4169,37 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>525</v>
+        <v>1800</v>
       </c>
       <c r="E19">
-        <v>1700</v>
+        <v>210</v>
       </c>
       <c r="F19">
-        <v>-1060</v>
+        <v>-375</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M19">
         <v>2705</v>
@@ -4527,37 +4207,37 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="E20">
-        <v>1575</v>
+        <v>260</v>
       </c>
       <c r="F20">
-        <v>-443</v>
+        <v>-375</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1940</v>
+        <v>600</v>
       </c>
       <c r="M20">
         <v>2705</v>
@@ -4565,37 +4245,37 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>-701</v>
+        <v>-600</v>
       </c>
       <c r="E21">
-        <v>1870</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>-715</v>
+        <v>-1477</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1940</v>
+        <v>960</v>
       </c>
       <c r="M21">
         <v>2705</v>
@@ -4603,37 +4283,37 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D22">
-        <v>1870</v>
+        <v>-598</v>
       </c>
       <c r="E22">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F22">
-        <v>-375</v>
+        <v>-181</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M22">
         <v>2705</v>
@@ -4641,37 +4321,37 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>1870</v>
+        <v>-600</v>
       </c>
       <c r="E23">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>-375</v>
+        <v>-1427</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M23">
         <v>2705</v>
@@ -4679,37 +4359,37 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>1870</v>
+        <v>-600</v>
       </c>
       <c r="E24">
-        <v>260</v>
+        <v>-245</v>
       </c>
       <c r="F24">
-        <v>-375</v>
+        <v>-146</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M24">
         <v>2705</v>
@@ -4717,37 +4397,37 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>1893</v>
+        <v>-600</v>
       </c>
       <c r="E25">
-        <v>-250</v>
+        <v>-175</v>
       </c>
       <c r="F25">
-        <v>-785</v>
+        <v>-50</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="M25">
         <v>2705</v>
@@ -4755,22 +4435,22 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D26">
-        <v>445</v>
+        <v>-600</v>
       </c>
       <c r="E26">
-        <v>1270</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>-1000</v>
+        <v>-2046</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -4779,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4793,22 +4473,22 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>-25</v>
+        <v>-600</v>
       </c>
       <c r="E27">
-        <v>1270</v>
+        <v>-445</v>
       </c>
       <c r="F27">
-        <v>-1427</v>
+        <v>-1025</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -4817,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4831,22 +4511,22 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D28">
-        <v>-25</v>
+        <v>-600</v>
       </c>
       <c r="E28">
-        <v>1270</v>
+        <v>-435</v>
       </c>
       <c r="F28">
-        <v>-1477</v>
+        <v>-1025</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -4855,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4869,22 +4549,22 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>190</v>
+        <v>-600</v>
       </c>
       <c r="E29">
-        <v>1220</v>
+        <v>-445</v>
       </c>
       <c r="F29">
-        <v>-1050</v>
+        <v>-1000</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -4893,7 +4573,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4907,22 +4587,22 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D30">
-        <v>-185</v>
+        <v>-600</v>
       </c>
       <c r="E30">
-        <v>1272</v>
+        <v>-435</v>
       </c>
       <c r="F30">
-        <v>-181</v>
+        <v>-1000</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -4931,7 +4611,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4945,22 +4625,22 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D31">
-        <v>175</v>
+        <v>-600</v>
       </c>
       <c r="E31">
-        <v>1270</v>
+        <v>25</v>
       </c>
       <c r="F31">
-        <v>-50</v>
+        <v>-2096</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -4969,7 +4649,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4983,22 +4663,22 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D32">
-        <v>445</v>
+        <v>-600</v>
       </c>
       <c r="E32">
-        <v>1270</v>
+        <v>-105</v>
       </c>
       <c r="F32">
-        <v>-1025</v>
+        <v>-146</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -5007,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -5021,22 +4701,22 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D33">
-        <v>435</v>
+        <v>-600</v>
       </c>
       <c r="E33">
-        <v>1270</v>
+        <v>-245</v>
       </c>
       <c r="F33">
-        <v>-1025</v>
+        <v>74</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -5045,7 +4725,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -5059,22 +4739,22 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D34">
-        <v>435</v>
+        <v>-600</v>
       </c>
       <c r="E34">
-        <v>1270</v>
+        <v>-105</v>
       </c>
       <c r="F34">
-        <v>-1000</v>
+        <v>74</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -5083,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -5097,419 +4777,153 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D35">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="E35">
-        <v>1270</v>
+        <v>780</v>
       </c>
       <c r="F35">
-        <v>-146</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
       </c>
       <c r="H35">
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>960</v>
+        <v>2900</v>
       </c>
       <c r="M35">
-        <v>2705</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D36">
-        <v>-25</v>
+        <v>175</v>
       </c>
       <c r="E36">
-        <v>1270</v>
+        <v>175</v>
       </c>
       <c r="F36">
-        <v>-2046</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
+        <v>-100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
       </c>
       <c r="H36">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>960</v>
+        <v>2900</v>
       </c>
       <c r="M36">
-        <v>2705</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D37">
-        <v>-25</v>
+        <v>1440</v>
       </c>
       <c r="E37">
-        <v>1270</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>-2096</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
+        <v>1175</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>960</v>
+        <v>2900</v>
       </c>
       <c r="M37">
-        <v>2705</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="E38">
-        <v>1270</v>
+        <v>505</v>
       </c>
       <c r="F38">
-        <v>-146</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
+        <v>-90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
       </c>
       <c r="H38">
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>960</v>
+        <v>2900</v>
       </c>
       <c r="M38">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1">
-        <v>197</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39">
-        <v>105</v>
-      </c>
-      <c r="E39">
-        <v>1270</v>
-      </c>
-      <c r="F39">
-        <v>74</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>960</v>
-      </c>
-      <c r="M39">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1">
-        <v>196</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40">
-        <v>245</v>
-      </c>
-      <c r="E40">
-        <v>1270</v>
-      </c>
-      <c r="F40">
-        <v>74</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>960</v>
-      </c>
-      <c r="M40">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1">
-        <v>135</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41">
-        <v>-853</v>
-      </c>
-      <c r="E41">
-        <v>229</v>
-      </c>
-      <c r="F41">
-        <v>958</v>
-      </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>2900</v>
-      </c>
-      <c r="M41">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1">
-        <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42">
-        <v>725</v>
-      </c>
-      <c r="E42">
-        <v>-425</v>
-      </c>
-      <c r="F42">
-        <v>-100</v>
-      </c>
-      <c r="G42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>2900</v>
-      </c>
-      <c r="M42">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1">
-        <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43">
-        <v>395</v>
-      </c>
-      <c r="E43">
-        <v>-95</v>
-      </c>
-      <c r="F43">
-        <v>-90</v>
-      </c>
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>2900</v>
-      </c>
-      <c r="M43">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1">
-        <v>148</v>
-      </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44">
-        <v>-540</v>
-      </c>
-      <c r="E44">
-        <v>-600</v>
-      </c>
-      <c r="F44">
-        <v>1175</v>
-      </c>
-      <c r="G44" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>2900</v>
-      </c>
-      <c r="M44">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1">
-        <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45">
-        <v>750</v>
-      </c>
-      <c r="E45">
-        <v>180</v>
-      </c>
-      <c r="F45">
-        <v>190</v>
-      </c>
-      <c r="G45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>2900</v>
-      </c>
-      <c r="M45">
         <v>1940</v>
       </c>
     </row>
@@ -5520,13 +4934,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5568,120 +4982,6 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2">
-        <v>670</v>
-      </c>
-      <c r="E2">
-        <v>360</v>
-      </c>
-      <c r="F2">
-        <v>190</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2900</v>
-      </c>
-      <c r="M2">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3">
-        <v>750</v>
-      </c>
-      <c r="E3">
-        <v>51</v>
-      </c>
-      <c r="F3">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2900</v>
-      </c>
-      <c r="M3">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4">
-        <v>830</v>
-      </c>
-      <c r="E4">
-        <v>51</v>
-      </c>
-      <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2900</v>
-      </c>
-      <c r="M4">
-        <v>1940</v>
       </c>
     </row>
   </sheetData>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323AF25B-EBFA-4F6A-BE88-BF20BD571EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,102 +69,102 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>TMP1S2b2:TMP1S2b2:1272829</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1272833</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1272832</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1272830</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1272837</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1272828</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1272827</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1272825</t>
+  </si>
+  <si>
+    <t>TMP1S2a3:TMP1S2a3:1272824</t>
+  </si>
+  <si>
+    <t>TMP1S2a2:TMP1S2a2:1272823</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1272822</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1272834</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1272838</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1272840</t>
+  </si>
+  <si>
     <t>TMP1S2e4:TMP1S2e4:1272842</t>
   </si>
   <si>
+    <t>TMP1S2e3:TMP1S2e3:1272843</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1272844</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1272845</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1272847</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1272848</t>
+  </si>
+  <si>
     <t>TMP1S2f2:TMP1S2f2:1272849</t>
   </si>
   <si>
-    <t>TMP1S2f3:TMP1S2f3:1272848</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1272847</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1272845</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1272844</t>
-  </si>
-  <si>
-    <t>TMP1S2e3:TMP1S2e3:1272843</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1272840</t>
+    <t>TMP1S2f1:TMP1S2f1:1272850</t>
   </si>
   <si>
     <t>TMP1S2d2:TMP1S2d2:1272839</t>
   </si>
   <si>
-    <t>TMP1S2d4:TMP1S2d4:1272838</t>
-  </si>
-  <si>
-    <t>TMP1S2f1:TMP1S2f1:1272850</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1272837</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1272822</t>
-  </si>
-  <si>
-    <t>TMP1S2a2:TMP1S2a2:1272823</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1272824</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1272825</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1272827</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1272828</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1272829</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1272830</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1272832</t>
-  </si>
-  <si>
     <t>TMP1S2c1:TMP1S2c1:1272835</t>
   </si>
   <si>
-    <t>TMP1S2c3:TMP1S2c3:1272833</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1272834</t>
-  </si>
-  <si>
     <t>TMP2S2a4:TMP2S2a4:1272852</t>
   </si>
   <si>
+    <t>TMP2S2b4:TMP2S2b4:1272857</t>
+  </si>
+  <si>
+    <t>TMP2S2a1:TMP2S2a1:1272855</t>
+  </si>
+  <si>
+    <t>TMP2S2b3:TMP2S2b3:1272858</t>
+  </si>
+  <si>
+    <t>TMP2S2b2:TMP2S2b2:1272859</t>
+  </si>
+  <si>
     <t>TMP2S2b1:TMP2S2b1:1272860</t>
   </si>
   <si>
-    <t>TMP2S2b2:TMP2S2b2:1272859</t>
-  </si>
-  <si>
-    <t>TMP2S2b3:TMP2S2b3:1272858</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1272855</t>
+    <t>TMP2S2a3:TMP2S2a3:1272853</t>
   </si>
   <si>
     <t>TMP2S2a2:TMP2S2a2:1272854</t>
   </si>
   <si>
-    <t>TMP2S2b4:TMP2S2b4:1272857</t>
-  </si>
-  <si>
-    <t>TMP2S2a3:TMP2S2a3:1272853</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1272862</t>
   </si>
   <si>
@@ -183,90 +189,90 @@
     <t>TMP3S2a1:TMP3S2a1:1272869</t>
   </si>
   <si>
+    <t>TMP4S2b2:TMP4S2b2:1272873</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1272872</t>
+  </si>
+  <si>
     <t>TMP4S2b4:TMP4S2b4:1272871</t>
   </si>
   <si>
+    <t>TMP4S2a2:TMP4S2a2:1272877</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1272878</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1272875</t>
+  </si>
+  <si>
     <t>TMP4S2b3:TMP4S2b3:1272874</t>
   </si>
   <si>
-    <t>TMP4S2a4:TMP4S2a4:1272875</t>
-  </si>
-  <si>
     <t>TMP4S2a3:TMP4S2a3:1272876</t>
   </si>
   <si>
-    <t>TMP4S2a2:TMP4S2a2:1272877</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1272878</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1272873</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1272872</t>
+    <t>TMP5S2a3:TMP5S2a3:1272881</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1272882</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1272883</t>
   </si>
   <si>
     <t>TMP5S2a4:TMP5S2a4:1272880</t>
   </si>
   <si>
-    <t>TMP5S2a3:TMP5S2a3:1272881</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1272882</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1272883</t>
-  </si>
-  <si>
     <t>TMP6S2b2:TMP6S2b2:1272885</t>
   </si>
   <si>
     <t>TMP6S2b1:TMP6S2b1:1272886</t>
   </si>
   <si>
+    <t>TMP6S2b4:TMP6S2b4:1272887</t>
+  </si>
+  <si>
     <t>TMP6S2b3:TMP6S2b3:1272888</t>
   </si>
   <si>
+    <t>TMP6S2a2:TMP6S2a2:1272889</t>
+  </si>
+  <si>
     <t>TMP6S2a1:TMP6S2a1:1272890</t>
   </si>
   <si>
-    <t>TMP6S2a2:TMP6S2a2:1272889</t>
-  </si>
-  <si>
-    <t>TMP6S2b4:TMP6S2b4:1272887</t>
+    <t>TMP7S2d3:TMP7S2d3:1272899</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1272900</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1272901</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1272902</t>
   </si>
   <si>
     <t>TMP7S2a1:TMP7S2a1:1272897</t>
   </si>
   <si>
-    <t>TMP7S2d2:TMP7S2d2:1272900</t>
-  </si>
-  <si>
     <t>TMP7S2a2:TMP7S2a2:1272896</t>
   </si>
   <si>
-    <t>TMP7S2d1:TMP7S2d1:1272901</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1272902</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1272899</t>
-  </si>
-  <si>
     <t>TMP7S2b1:TMP7S2b1:1272895</t>
   </si>
   <si>
+    <t>TMP7S2c2:TMP7S2c2:1272903</t>
+  </si>
+  <si>
     <t>TMP7S2a3:TMP7S2a3:1272893</t>
   </si>
   <si>
     <t>TMP7S2b3:TMP7S2b3:1272892</t>
   </si>
   <si>
-    <t>TMP7S2c2:TMP7S2c2:1272903</t>
-  </si>
-  <si>
     <t>TMP7S2b2:TMP7S2b2:1272894</t>
   </si>
   <si>
@@ -276,134 +282,56 @@
     <t>F</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
     <t>Fitting</t>
   </si>
   <si>
-    <t>LP1S3b1:LP1S3b1:1112164</t>
-  </si>
-  <si>
-    <t>LP1S3b2:LP1S3b2:1112117</t>
-  </si>
-  <si>
-    <t>LP1S3b4:LP1S3b4:1111868</t>
-  </si>
-  <si>
-    <t>LP1S3a4:LP1S3a4:1107446</t>
-  </si>
-  <si>
-    <t>LP1S3a3:LP1S3a3:1105290</t>
-  </si>
-  <si>
-    <t>LP1S3a2:LP1S3a2:1103774</t>
-  </si>
-  <si>
-    <t>LP1S3a1:LP1S3a1:1102074</t>
-  </si>
-  <si>
-    <t>LP1S3b3:LP1S3b3:1112271</t>
-  </si>
-  <si>
     <t>BSS.Bottle Trap:BSS.Bottle trap:1003598</t>
   </si>
   <si>
+    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1070898</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1070932</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1070931</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1070900</t>
+  </si>
+  <si>
     <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1070866</t>
   </si>
   <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1070900</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021335</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1070931</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1070932</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1021224</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1070898</t>
-  </si>
-  <si>
     <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1070937</t>
   </si>
   <si>
-    <t>LP4S3a1:LP4S3a1:1154109</t>
-  </si>
-  <si>
-    <t>LP4S3a2:LP4S3a2:1154132</t>
-  </si>
-  <si>
-    <t>LP5S3c3:LP5S3c3:1170244</t>
-  </si>
-  <si>
     <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1070817</t>
   </si>
   <si>
-    <t>LP5S3c4:LP5S3c4:1169681</t>
-  </si>
-  <si>
-    <t>LP5S3b1:LP5S3b1:1161317</t>
-  </si>
-  <si>
     <t>BSS.GESSI.SM.49079:29046000:1070934</t>
   </si>
   <si>
-    <t>LP5S3c2:LP5S3c2:1167654</t>
-  </si>
-  <si>
-    <t>LP5S3a1:LP5S3a1:1155469</t>
-  </si>
-  <si>
-    <t>LP5S3a2:LP5S3a2:1156691</t>
-  </si>
-  <si>
-    <t>LP5S3a3:LP5S3a3:1159006</t>
-  </si>
-  <si>
-    <t>LP5S3a4:LP5S3a4:1159048</t>
-  </si>
-  <si>
-    <t>LP5S3c1:LP5S3c1:1167627</t>
-  </si>
-  <si>
-    <t>LP5S3b2:LP5S3b2:1161341</t>
-  </si>
-  <si>
-    <t>LP5S3b3:LP5S3b3:1163623</t>
-  </si>
-  <si>
-    <t>LP5S3b4:LP5S3b4:1163640</t>
-  </si>
-  <si>
     <t>BSS.Vesbo Tee Fiting:Standard:1021880</t>
   </si>
   <si>
     <t>BSS.Ceiling Access Panel Opening:450 x 450MM:1070904</t>
   </si>
   <si>
+    <t>BSS.Ceiling Access Panel:450 x 450MM:1070905</t>
+  </si>
+  <si>
     <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1070936</t>
-  </si>
-  <si>
-    <t>BSS.Ceiling Access Panel:450 x 450MM:1070905</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,13 +394,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -510,7 +446,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -544,6 +480,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -578,9 +515,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,14 +691,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,9 +759,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -818,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F2">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -830,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -842,9 +797,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -856,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>925</v>
+        <v>-25</v>
       </c>
       <c r="F3">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -868,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -880,9 +835,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -894,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>925</v>
+        <v>-25</v>
       </c>
       <c r="F4">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -906,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -918,9 +873,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -932,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>925</v>
+        <v>-330</v>
       </c>
       <c r="F5">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -944,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -956,9 +911,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -970,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="F6">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -982,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -994,9 +949,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1008,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F7">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1020,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1032,9 +987,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1046,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>470</v>
+        <v>-330</v>
       </c>
       <c r="F8">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1058,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1070,9 +1025,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1084,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>450</v>
+        <v>-1330</v>
       </c>
       <c r="F9">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1096,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1108,9 +1063,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1122,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>450</v>
+        <v>-1330</v>
       </c>
       <c r="F10">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1134,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1146,9 +1101,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1160,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>450</v>
+        <v>-1330</v>
       </c>
       <c r="F11">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1172,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1184,9 +1139,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1198,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>925</v>
+        <v>-1330</v>
       </c>
       <c r="F12">
         <v>1025</v>
@@ -1210,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1222,9 +1177,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1236,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>450</v>
+        <v>-25</v>
       </c>
       <c r="F13">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1248,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1260,9 +1215,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1274,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-1330</v>
+        <v>450</v>
       </c>
       <c r="F14">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1286,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1298,9 +1253,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1312,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-1330</v>
+        <v>450</v>
       </c>
       <c r="F15">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1324,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1336,9 +1291,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1350,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-1330</v>
+        <v>470</v>
       </c>
       <c r="F16">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1362,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1374,9 +1329,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1388,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-1330</v>
+        <v>470</v>
       </c>
       <c r="F17">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1400,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1412,9 +1367,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1426,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-330</v>
+        <v>470</v>
       </c>
       <c r="F18">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1438,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1450,9 +1405,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1464,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-330</v>
+        <v>470</v>
       </c>
       <c r="F19">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1476,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1488,9 +1443,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1502,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-330</v>
+        <v>925</v>
       </c>
       <c r="F20">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1514,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1526,9 +1481,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1540,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-330</v>
+        <v>925</v>
       </c>
       <c r="F21">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1552,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1564,9 +1519,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1578,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-25</v>
+        <v>925</v>
       </c>
       <c r="F22">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1590,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1602,9 +1557,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1616,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-25</v>
+        <v>925</v>
       </c>
       <c r="F23">
         <v>1025</v>
@@ -1628,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1640,9 +1595,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1654,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-25</v>
+        <v>450</v>
       </c>
       <c r="F24">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1666,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1678,9 +1633,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1695,7 +1650,7 @@
         <v>-25</v>
       </c>
       <c r="F25">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1704,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1716,7 +1671,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>249</v>
       </c>
@@ -1742,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1754,9 +1709,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1771,7 +1726,7 @@
         <v>300</v>
       </c>
       <c r="F27">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1780,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1792,9 +1747,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1806,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F28">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1818,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1830,7 +1785,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>254</v>
       </c>
@@ -1856,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1868,9 +1823,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1882,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F30">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1894,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1906,9 +1861,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1920,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F31">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1932,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1944,9 +1899,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1958,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F32">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1970,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1982,9 +1937,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1999,7 +1954,7 @@
         <v>-300</v>
       </c>
       <c r="F33">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2008,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2020,7 +1975,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>257</v>
       </c>
@@ -2046,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2058,7 +2013,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>258</v>
       </c>
@@ -2084,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2096,7 +2051,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>259</v>
       </c>
@@ -2122,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2134,7 +2089,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>260</v>
       </c>
@@ -2160,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2172,7 +2127,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>261</v>
       </c>
@@ -2198,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2210,7 +2165,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>262</v>
       </c>
@@ -2236,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2248,7 +2203,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>263</v>
       </c>
@@ -2274,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2286,7 +2241,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>264</v>
       </c>
@@ -2312,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2324,9 +2279,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2341,7 +2296,7 @@
         <v>300</v>
       </c>
       <c r="F42">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2350,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2362,9 +2317,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2379,7 +2334,7 @@
         <v>300</v>
       </c>
       <c r="F43">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2388,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2400,9 +2355,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2414,7 +2369,7 @@
         <v>1800</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F44">
         <v>-775</v>
@@ -2426,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2438,9 +2393,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2455,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -2464,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2476,9 +2431,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2493,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2502,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2514,9 +2469,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2531,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -2540,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2552,9 +2507,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2569,7 +2524,7 @@
         <v>300</v>
       </c>
       <c r="F48">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -2578,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2590,9 +2545,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2604,10 +2559,10 @@
         <v>1800</v>
       </c>
       <c r="E49">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2616,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2628,9 +2583,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2642,10 +2597,10 @@
         <v>-600</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2654,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2666,9 +2621,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2680,10 +2635,10 @@
         <v>-600</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2692,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2704,9 +2659,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2718,10 +2673,10 @@
         <v>-600</v>
       </c>
       <c r="E52">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2730,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2742,9 +2697,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2756,7 +2711,7 @@
         <v>-600</v>
       </c>
       <c r="E53">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>1025</v>
@@ -2768,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2780,7 +2735,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>277</v>
       </c>
@@ -2806,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2818,7 +2773,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>278</v>
       </c>
@@ -2844,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2856,9 +2811,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2873,7 +2828,7 @@
         <v>-100</v>
       </c>
       <c r="F56">
-        <v>-150</v>
+        <v>-750</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2882,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2894,9 +2849,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2908,10 +2863,10 @@
         <v>960</v>
       </c>
       <c r="E57">
-        <v>-120</v>
+        <v>-100</v>
       </c>
       <c r="F57">
-        <v>1050</v>
+        <v>-150</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2920,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2932,7 +2887,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>281</v>
       </c>
@@ -2958,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2970,9 +2925,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2984,10 +2939,10 @@
         <v>960</v>
       </c>
       <c r="E59">
-        <v>-100</v>
+        <v>-120</v>
       </c>
       <c r="F59">
-        <v>-750</v>
+        <v>1050</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2996,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3008,9 +2963,9 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -3019,10 +2974,10 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>750</v>
+        <v>2640</v>
       </c>
       <c r="E60">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F60">
         <v>-25</v>
@@ -3034,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3046,7 +3001,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>290</v>
       </c>
@@ -3072,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3084,9 +3039,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3095,10 +3050,10 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>750</v>
+        <v>2640</v>
       </c>
       <c r="E62">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="F62">
         <v>-25</v>
@@ -3110,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3122,9 +3077,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3133,10 +3088,10 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>2640</v>
+        <v>2040</v>
       </c>
       <c r="E63">
-        <v>1050</v>
+        <v>150</v>
       </c>
       <c r="F63">
         <v>-25</v>
@@ -3148,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3160,9 +3115,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3171,10 +3126,10 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>2040</v>
+        <v>750</v>
       </c>
       <c r="E64">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="F64">
         <v>-25</v>
@@ -3186,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3198,9 +3153,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3209,10 +3164,10 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>2640</v>
+        <v>750</v>
       </c>
       <c r="E65">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F65">
         <v>-25</v>
@@ -3224,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3236,7 +3191,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>286</v>
       </c>
@@ -3262,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3274,9 +3229,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -3285,10 +3240,10 @@
         <v>80</v>
       </c>
       <c r="D67">
-        <v>750</v>
+        <v>2040</v>
       </c>
       <c r="E67">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F67">
         <v>-25</v>
@@ -3300,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3312,9 +3267,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -3323,7 +3278,7 @@
         <v>81</v>
       </c>
       <c r="D68">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="E68">
         <v>150</v>
@@ -3338,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3350,9 +3305,9 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3361,10 +3316,10 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>2040</v>
+        <v>1350</v>
       </c>
       <c r="E69">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F69">
         <v>-25</v>
@@ -3376,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3388,7 +3343,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>285</v>
       </c>
@@ -3414,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3426,7 +3381,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>294</v>
       </c>
@@ -3452,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3470,14 +3425,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3521,1409 +3489,497 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="E2">
-        <v>-255</v>
+        <v>450</v>
       </c>
       <c r="F2">
-        <v>175</v>
+        <v>-443</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1940</v>
+      </c>
+      <c r="M2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2900</v>
-      </c>
-      <c r="M2">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="E3">
-        <v>-205</v>
+        <v>-775</v>
       </c>
       <c r="F3">
-        <v>175</v>
+        <v>-1025</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1940</v>
+      </c>
+      <c r="M3">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2900</v>
-      </c>
-      <c r="M3">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="E4">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="F4">
-        <v>175</v>
+        <v>-175</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1940</v>
+      </c>
+      <c r="M4">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2900</v>
-      </c>
-      <c r="M4">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="E5">
-        <v>455</v>
+        <v>-450</v>
       </c>
       <c r="F5">
-        <v>-1000</v>
+        <v>-175</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1940</v>
+      </c>
+      <c r="M5">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2900</v>
-      </c>
-      <c r="M5">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="E6">
-        <v>465</v>
+        <v>-135</v>
       </c>
       <c r="F6">
-        <v>-1000</v>
+        <v>-725</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1940</v>
+      </c>
+      <c r="M6">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2900</v>
-      </c>
-      <c r="M6">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-1025</v>
+        <v>125</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1940</v>
+      </c>
+      <c r="M7">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2900</v>
-      </c>
-      <c r="M7">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E8">
-        <v>465</v>
+        <v>170</v>
       </c>
       <c r="F8">
-        <v>-1025</v>
+        <v>-375</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>600</v>
+      </c>
+      <c r="M8">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2900</v>
-      </c>
-      <c r="M8">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-598</v>
       </c>
       <c r="E9">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="F9">
-        <v>175</v>
+        <v>-181</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>960</v>
+      </c>
+      <c r="M9">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>2900</v>
-      </c>
-      <c r="M9">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>1505</v>
+        <v>-600</v>
       </c>
       <c r="E10">
-        <v>450</v>
+        <v>-200</v>
       </c>
       <c r="F10">
-        <v>-443</v>
+        <v>-50</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>960</v>
+      </c>
+      <c r="M10">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1940</v>
-      </c>
-      <c r="M10">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="F11">
-        <v>125</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
+        <v>190</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2900</v>
+      </c>
+      <c r="M11">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1940</v>
-      </c>
-      <c r="M11">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>1580</v>
+        <v>175</v>
       </c>
       <c r="E12">
-        <v>-135</v>
+        <v>175</v>
       </c>
       <c r="F12">
-        <v>-725</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2900</v>
+      </c>
+      <c r="M12">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1940</v>
-      </c>
-      <c r="M12">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>1550</v>
+        <v>505</v>
       </c>
       <c r="E13">
-        <v>-135</v>
+        <v>505</v>
       </c>
       <c r="F13">
-        <v>-1030</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>-90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2900</v>
+      </c>
+      <c r="M13">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1940</v>
-      </c>
-      <c r="M13">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>1692</v>
+        <v>1440</v>
       </c>
       <c r="E14">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>-175</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
+        <v>1175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1940</v>
+        <v>2900</v>
       </c>
       <c r="M14">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>144</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15">
-        <v>1740</v>
-      </c>
-      <c r="E15">
-        <v>450</v>
-      </c>
-      <c r="F15">
-        <v>-175</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1940</v>
-      </c>
-      <c r="M15">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>1550</v>
-      </c>
-      <c r="E16">
-        <v>375</v>
-      </c>
-      <c r="F16">
-        <v>-1030</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1940</v>
-      </c>
-      <c r="M16">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>139</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17">
-        <v>1505</v>
-      </c>
-      <c r="E17">
-        <v>-775</v>
-      </c>
-      <c r="F17">
-        <v>-1025</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1940</v>
-      </c>
-      <c r="M17">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18">
-        <v>1800</v>
-      </c>
-      <c r="E18">
-        <v>170</v>
-      </c>
-      <c r="F18">
-        <v>-375</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>600</v>
-      </c>
-      <c r="M18">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19">
-        <v>1800</v>
-      </c>
-      <c r="E19">
-        <v>210</v>
-      </c>
-      <c r="F19">
-        <v>-375</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>600</v>
-      </c>
-      <c r="M19">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>189</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20">
-        <v>1800</v>
-      </c>
-      <c r="E20">
-        <v>260</v>
-      </c>
-      <c r="F20">
-        <v>-375</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>600</v>
-      </c>
-      <c r="M20">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>201</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21">
-        <v>-600</v>
-      </c>
-      <c r="E21">
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <v>-1477</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>960</v>
-      </c>
-      <c r="M21">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1">
-        <v>134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22">
-        <v>-598</v>
-      </c>
-      <c r="E22">
-        <v>185</v>
-      </c>
-      <c r="F22">
-        <v>-181</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>960</v>
-      </c>
-      <c r="M22">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1">
-        <v>200</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23">
-        <v>-600</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>-1427</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>960</v>
-      </c>
-      <c r="M23">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1">
-        <v>194</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24">
-        <v>-600</v>
-      </c>
-      <c r="E24">
-        <v>-245</v>
-      </c>
-      <c r="F24">
-        <v>-146</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>960</v>
-      </c>
-      <c r="M24">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1">
-        <v>146</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25">
-        <v>-600</v>
-      </c>
-      <c r="E25">
-        <v>-175</v>
-      </c>
-      <c r="F25">
-        <v>-50</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>960</v>
-      </c>
-      <c r="M25">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1">
-        <v>199</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26">
-        <v>-600</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26">
-        <v>-2046</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>960</v>
-      </c>
-      <c r="M26">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1">
-        <v>190</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27">
-        <v>-600</v>
-      </c>
-      <c r="E27">
-        <v>-445</v>
-      </c>
-      <c r="F27">
-        <v>-1025</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>960</v>
-      </c>
-      <c r="M27">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1">
-        <v>191</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28">
-        <v>-600</v>
-      </c>
-      <c r="E28">
-        <v>-435</v>
-      </c>
-      <c r="F28">
-        <v>-1025</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>960</v>
-      </c>
-      <c r="M28">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1">
-        <v>192</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29">
-        <v>-600</v>
-      </c>
-      <c r="E29">
-        <v>-445</v>
-      </c>
-      <c r="F29">
-        <v>-1000</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>960</v>
-      </c>
-      <c r="M29">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1">
-        <v>193</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30">
-        <v>-600</v>
-      </c>
-      <c r="E30">
-        <v>-435</v>
-      </c>
-      <c r="F30">
-        <v>-1000</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>960</v>
-      </c>
-      <c r="M30">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1">
-        <v>198</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31">
-        <v>-600</v>
-      </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
-      <c r="F31">
-        <v>-2096</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>960</v>
-      </c>
-      <c r="M31">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1">
-        <v>195</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32">
-        <v>-600</v>
-      </c>
-      <c r="E32">
-        <v>-105</v>
-      </c>
-      <c r="F32">
-        <v>-146</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>960</v>
-      </c>
-      <c r="M32">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1">
-        <v>196</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33">
-        <v>-600</v>
-      </c>
-      <c r="E33">
-        <v>-245</v>
-      </c>
-      <c r="F33">
-        <v>74</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>960</v>
-      </c>
-      <c r="M33">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>197</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34">
-        <v>-600</v>
-      </c>
-      <c r="E34">
-        <v>-105</v>
-      </c>
-      <c r="F34">
-        <v>74</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>960</v>
-      </c>
-      <c r="M34">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35">
-        <v>150</v>
-      </c>
-      <c r="E35">
-        <v>780</v>
-      </c>
-      <c r="F35">
-        <v>190</v>
-      </c>
-      <c r="G35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>2900</v>
-      </c>
-      <c r="M35">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36">
-        <v>175</v>
-      </c>
-      <c r="E36">
-        <v>175</v>
-      </c>
-      <c r="F36">
-        <v>-100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>2900</v>
-      </c>
-      <c r="M36">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37">
-        <v>1440</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1175</v>
-      </c>
-      <c r="G37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>2900</v>
-      </c>
-      <c r="M37">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1">
-        <v>142</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38">
-        <v>505</v>
-      </c>
-      <c r="E38">
-        <v>505</v>
-      </c>
-      <c r="F38">
-        <v>-90</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>2900</v>
-      </c>
-      <c r="M38">
         <v>1940</v>
       </c>
     </row>
@@ -4933,14 +3989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323AF25B-EBFA-4F6A-BE88-BF20BD571EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B90ACD-3E1E-4E4C-BDED-DF9681EF4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -712,7 +710,6 @@
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3428,9 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3440,9 +3435,7 @@
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3766,7 +3759,7 @@
         <v>95</v>
       </c>
       <c r="D9">
-        <v>-598</v>
+        <v>-600</v>
       </c>
       <c r="E9">
         <v>160</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft).xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B90ACD-3E1E-4E4C-BDED-DF9681EF4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="103">
   <si>
     <t>Marking type</t>
   </si>
@@ -282,6 +276,9 @@
     <t>F</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>blank</t>
   </si>
   <si>
@@ -325,13 +322,16 @@
   </si>
   <si>
     <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1070936</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,21 +394,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,7 +438,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -480,7 +472,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -515,10 +506,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,28 +681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>231</v>
       </c>
@@ -782,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -794,7 +770,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>234</v>
       </c>
@@ -820,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -832,7 +808,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>233</v>
       </c>
@@ -858,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -870,7 +846,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>232</v>
       </c>
@@ -896,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -908,7 +884,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>237</v>
       </c>
@@ -934,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -946,7 +922,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>230</v>
       </c>
@@ -972,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -984,7 +960,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>229</v>
       </c>
@@ -1010,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1022,7 +998,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>228</v>
       </c>
@@ -1048,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1060,7 +1036,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>227</v>
       </c>
@@ -1086,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1098,7 +1074,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>226</v>
       </c>
@@ -1124,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1136,7 +1112,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>225</v>
       </c>
@@ -1162,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1174,7 +1150,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>235</v>
       </c>
@@ -1200,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1212,7 +1188,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>238</v>
       </c>
@@ -1238,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1250,7 +1226,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>240</v>
       </c>
@@ -1276,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1288,7 +1264,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>241</v>
       </c>
@@ -1314,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1326,7 +1302,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>242</v>
       </c>
@@ -1352,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1364,7 +1340,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>243</v>
       </c>
@@ -1390,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1402,7 +1378,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>244</v>
       </c>
@@ -1428,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1440,7 +1416,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>245</v>
       </c>
@@ -1466,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1478,7 +1454,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>246</v>
       </c>
@@ -1504,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1516,7 +1492,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>247</v>
       </c>
@@ -1542,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1554,7 +1530,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>248</v>
       </c>
@@ -1580,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1592,7 +1568,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>239</v>
       </c>
@@ -1618,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1630,7 +1606,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>236</v>
       </c>
@@ -1656,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1668,7 +1644,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>249</v>
       </c>
@@ -1694,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1706,7 +1682,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>253</v>
       </c>
@@ -1732,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1744,7 +1720,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>252</v>
       </c>
@@ -1770,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1782,7 +1758,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>254</v>
       </c>
@@ -1808,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1820,7 +1796,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>255</v>
       </c>
@@ -1846,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1858,7 +1834,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>256</v>
       </c>
@@ -1884,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1896,7 +1872,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>250</v>
       </c>
@@ -1922,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1934,7 +1910,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>251</v>
       </c>
@@ -1960,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1972,7 +1948,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>257</v>
       </c>
@@ -1998,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2010,7 +1986,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>258</v>
       </c>
@@ -2036,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2048,7 +2024,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>259</v>
       </c>
@@ -2074,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2086,7 +2062,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>260</v>
       </c>
@@ -2112,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2124,7 +2100,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>261</v>
       </c>
@@ -2150,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2162,7 +2138,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>262</v>
       </c>
@@ -2188,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2200,7 +2176,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>263</v>
       </c>
@@ -2226,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2238,7 +2214,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>264</v>
       </c>
@@ -2264,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2276,7 +2252,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>267</v>
       </c>
@@ -2302,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2314,7 +2290,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>266</v>
       </c>
@@ -2340,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2352,7 +2328,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>265</v>
       </c>
@@ -2378,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2390,7 +2366,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>271</v>
       </c>
@@ -2416,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2428,7 +2404,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>272</v>
       </c>
@@ -2454,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2466,7 +2442,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>269</v>
       </c>
@@ -2492,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2504,7 +2480,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>268</v>
       </c>
@@ -2530,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2542,7 +2518,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>270</v>
       </c>
@@ -2568,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2580,7 +2556,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>274</v>
       </c>
@@ -2606,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2618,7 +2594,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>275</v>
       </c>
@@ -2644,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2656,7 +2632,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>276</v>
       </c>
@@ -2682,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2694,7 +2670,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>273</v>
       </c>
@@ -2720,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2732,7 +2708,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>277</v>
       </c>
@@ -2758,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2770,7 +2746,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>278</v>
       </c>
@@ -2796,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2808,7 +2784,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>279</v>
       </c>
@@ -2834,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2846,7 +2822,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>280</v>
       </c>
@@ -2872,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2884,7 +2860,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>281</v>
       </c>
@@ -2910,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2922,7 +2898,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>282</v>
       </c>
@@ -2948,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2960,7 +2936,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>289</v>
       </c>
@@ -2986,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2998,7 +2974,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>290</v>
       </c>
@@ -3024,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3036,7 +3012,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>291</v>
       </c>
@@ -3062,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3074,7 +3050,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>292</v>
       </c>
@@ -3100,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3112,7 +3088,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>288</v>
       </c>
@@ -3138,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3150,7 +3126,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>287</v>
       </c>
@@ -3176,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3188,7 +3164,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>286</v>
       </c>
@@ -3214,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3226,7 +3202,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>293</v>
       </c>
@@ -3252,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3264,7 +3240,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>284</v>
       </c>
@@ -3290,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3302,7 +3278,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>283</v>
       </c>
@@ -3328,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3340,7 +3316,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>285</v>
       </c>
@@ -3366,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3378,7 +3354,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>294</v>
       </c>
@@ -3404,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3422,23 +3398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,15 +3449,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>1505</v>
@@ -3508,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3520,15 +3487,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>1505</v>
@@ -3546,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3558,15 +3525,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>1740</v>
@@ -3584,7 +3551,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3596,15 +3563,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>1692</v>
@@ -3622,7 +3589,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3634,15 +3601,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>1580</v>
@@ -3660,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3672,15 +3639,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>1800</v>
@@ -3698,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3710,15 +3677,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>1800</v>
@@ -3736,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3748,15 +3715,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>-600</v>
@@ -3774,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3786,15 +3753,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>-600</v>
@@ -3812,7 +3779,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3824,15 +3791,15 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -3850,7 +3817,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3862,15 +3829,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>175</v>
@@ -3888,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -3900,15 +3867,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>505</v>
@@ -3926,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -3938,15 +3905,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>1440</v>
@@ -3964,7 +3931,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3982,14 +3949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
